--- a/Excel/Trilha Excel/Fórmulas/05_Função SOMASES.xlsx
+++ b/Excel/Trilha Excel/Fórmulas/05_Função SOMASES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.lopes\GitPessoal\Hashtag_AnaliseDados\Excel\Trilha Excel\Fórmulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a2f4a81bc3d9dd/Documentos/GitHub/Hashtag_AnaliseDados/Excel/Trilha Excel/Fórmulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873369E9-300C-4D72-8EE5-5A516B9E5C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{873369E9-300C-4D72-8EE5-5A516B9E5C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69F5AEE-6A16-4A40-944D-671505E05BCB}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SOMASES" sheetId="2" r:id="rId1"/>
@@ -426,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -509,9 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,7 +1131,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,27 +1813,27 @@
       <c r="H24" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="25">
         <f>SUMIFS($E:$E, $D:$D, I$23, $B:$B, $H24)</f>
         <v>7204</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="25">
         <f>SUMIFS($E:$E, $D:$D, J$23, $B:$B, $H24)</f>
         <v>6052</v>
       </c>
-      <c r="K24" s="31">
-        <f t="shared" ref="J24:N24" si="0">SUMIFS($E:$E, $D:$D, K$23, $B:$B, $H24)</f>
+      <c r="K24" s="25">
+        <f t="shared" ref="K24:N24" si="0">SUMIFS($E:$E, $D:$D, K$23, $B:$B, $H24)</f>
         <v>6856</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="25">
         <f t="shared" si="0"/>
         <v>2568</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="25">
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="25">
         <f t="shared" si="0"/>
         <v>949</v>
       </c>
@@ -1860,27 +1857,27 @@
       <c r="H25" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="25">
         <f t="shared" ref="I25:N28" si="1">SUMIFS($E:$E, $D:$D, I$23, $B:$B, $H25)</f>
         <v>2391</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="25">
         <f t="shared" si="1"/>
         <v>2423</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="25">
         <f t="shared" si="1"/>
         <v>1285</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="25">
         <f t="shared" si="1"/>
         <v>802</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="25">
         <f t="shared" si="1"/>
         <v>1945</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="25">
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
@@ -1904,27 +1901,27 @@
       <c r="H26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="25">
         <f t="shared" si="1"/>
         <v>1771</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="25">
         <f t="shared" si="1"/>
         <v>1423</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="25">
         <f t="shared" si="1"/>
         <v>1457</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="25">
         <f t="shared" si="1"/>
         <v>2528</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="25">
         <f t="shared" si="1"/>
         <v>603</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="25">
         <f t="shared" si="1"/>
         <v>1454</v>
       </c>
@@ -1948,27 +1945,27 @@
       <c r="H27" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="25">
         <f t="shared" si="1"/>
         <v>1760</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="25">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="25">
         <f t="shared" si="1"/>
         <v>1703</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="25">
         <f t="shared" si="1"/>
         <v>2266</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="25">
         <f t="shared" si="1"/>
         <v>733</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="25">
         <f t="shared" si="1"/>
         <v>2181</v>
       </c>
@@ -1992,27 +1989,27 @@
       <c r="H28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="25">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="25">
         <f t="shared" si="1"/>
         <v>2397</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="25">
         <f t="shared" si="1"/>
         <v>2340</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="25">
         <f t="shared" si="1"/>
         <v>865</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="25">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="25">
         <f t="shared" si="1"/>
         <v>2811</v>
       </c>
@@ -2034,27 +2031,27 @@
         <v>865</v>
       </c>
       <c r="I29" s="25">
-        <f>SUM(I24:I28)</f>
+        <f t="shared" ref="I29:N29" si="2">SUM(I24:I28)</f>
         <v>13419</v>
       </c>
       <c r="J29" s="25">
-        <f>SUM(J24:J28)</f>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="K29" s="25">
-        <f>SUM(K24:K28)</f>
+        <f t="shared" si="2"/>
         <v>13641</v>
       </c>
       <c r="L29" s="25">
-        <f>SUM(L24:L28)</f>
+        <f t="shared" si="2"/>
         <v>9029</v>
       </c>
       <c r="M29" s="25">
-        <f>SUM(M24:M28)</f>
+        <f t="shared" si="2"/>
         <v>3781</v>
       </c>
       <c r="N29" s="25">
-        <f>SUM(N24:N28)</f>
+        <f t="shared" si="2"/>
         <v>7607</v>
       </c>
     </row>
@@ -2093,53 +2090,53 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <v>45557</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <v>45557</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="32">
         <v>45557</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <v>5000</v>
       </c>
     </row>
